--- a/biology/Mycologie/Podosphaera/Podosphaera.xlsx
+++ b/biology/Mycologie/Podosphaera/Podosphaera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Podosphaera est un genre de champignons ascomycètes de la famille des Erysiphaceae. Les espèces de ce genre sont des champignons phytopathogènes responsables de diverses formes d'oïdium. Les plantes hôtes appartiennent pour la plupart à la famille des Rosaceae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Podosphaera est un genre de champignons ascomycètes de la famille des Erysiphaceae. Les espèces de ce genre sont des champignons phytopathogènes responsables de diverses formes d'oïdium. Les plantes hôtes appartiennent pour la plupart à la famille des Rosaceae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Podosphaera est proche du genre Cystotheca avec lequel il partage ses conidies uniformes en chaîne et fibrosé ainsi que ses cléistothèces qui ne produisent qu'un seul asque composé de 6 à 8 spores. Cystotheca se différencie par ses hyphes aériens particuliers et par son cléistothèce composé de deux couches externes. L'espèce type du genre est Podosphaera myrtillina[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Podosphaera est proche du genre Cystotheca avec lequel il partage ses conidies uniformes en chaîne et fibrosé ainsi que ses cléistothèces qui ne produisent qu'un seul asque composé de 6 à 8 spores. Cystotheca se différencie par ses hyphes aériens particuliers et par son cléistothèce composé de deux couches externes. L'espèce type du genre est Podosphaera myrtillina.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Impact parasitaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parmi les espèces de Podosphaera à l'impact agricole conséquent se trouvent Podosphaera fusca et Podosphaera xanthii qui causent l'oïdium des Curcubitacées dans les cultures sous serre ; Podosphaera leucotricha sur les pommiers ; Podosphaera pannosa sur les Rosiers ; Podosphaera tridactyla sur le genre Prunus ; Podosphaera cerasi et Podosphaera clandestina sur les cerisiers ; Podosphaera aphanis sur les fraisiers et Podosphaera macularis sur le houblon[3],[4],[5].
-Parmi les espèces de Podosphaera impactant les plantes sauvages européennes se trouvent Podosphaera epilobii phytopathogène sur le genre Epilobium ; Podosphaera euphorbiae sur les Euphorbes ; Podosphaera filipendulae sur la Reine des prés ; Podosphaera mors-uvae sur le Groseillier à maquereau ; Podosphaera myrtillina sur les myrtillers ; Podosphaera plantaginis sur les Plantains ; Podosphaera amelanchis sur l'Amélanchier ; Podosphaera astragali sur les Astragales ; Podosphaera balsaminae sur l'Impatiente ne-me-touchez-pas ; Podosphaera aucupariae sur les Sorbiers et Podosphaera dipsacacearum sur les Knauties[3],[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les espèces de Podosphaera à l'impact agricole conséquent se trouvent Podosphaera fusca et Podosphaera xanthii qui causent l'oïdium des Curcubitacées dans les cultures sous serre ; Podosphaera leucotricha sur les pommiers ; Podosphaera pannosa sur les Rosiers ; Podosphaera tridactyla sur le genre Prunus ; Podosphaera cerasi et Podosphaera clandestina sur les cerisiers ; Podosphaera aphanis sur les fraisiers et Podosphaera macularis sur le houblon.
+Parmi les espèces de Podosphaera impactant les plantes sauvages européennes se trouvent Podosphaera epilobii phytopathogène sur le genre Epilobium ; Podosphaera euphorbiae sur les Euphorbes ; Podosphaera filipendulae sur la Reine des prés ; Podosphaera mors-uvae sur le Groseillier à maquereau ; Podosphaera myrtillina sur les myrtillers ; Podosphaera plantaginis sur les Plantains ; Podosphaera amelanchis sur l'Amélanchier ; Podosphaera astragali sur les Astragales ; Podosphaera balsaminae sur l'Impatiente ne-me-touchez-pas ; Podosphaera aucupariae sur les Sorbiers et Podosphaera dipsacacearum sur les Knauties.
 	Quelques espèces de Podosphaera
 			Podosphaera aphanis sur la Benoîte commune
 			Podosphaera erigerontis-canadensis sur du Pissenlit
@@ -586,9 +602,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Podosphaera a pour synonymes selon Index Fungorum                                      (3 juin 2022)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Podosphaera a pour synonymes selon Index Fungorum                                      (3 juin 2022) :
 Albigo Ehrh. ex Steud., 1824 ;
 Leucothallia Trevisan, 1853 ;
 Sphaerotheca Lév., 1851 ;
@@ -620,9 +638,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Index Fungorum                                      (3 juin 2022)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Index Fungorum                                      (3 juin 2022) :
 Podosphaera adenocauli U.Braun
 Podosphaera ainsliaeae (Y.S.Paul &amp; V.K.Thakur) U.Braun &amp; Y.S.Paul
 Podosphaera alpina (S.Blumer) U.Braun &amp; S.Takam.
